--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1827.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1827.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.059123586680031</v>
+        <v>0.6262181997299194</v>
       </c>
       <c r="B1">
-        <v>2.416529252167581</v>
+        <v>1.590180397033691</v>
       </c>
       <c r="C1">
-        <v>2.498928114154059</v>
+        <v>5.004844188690186</v>
       </c>
       <c r="D1">
-        <v>3.239936995606584</v>
+        <v>1.633498668670654</v>
       </c>
       <c r="E1">
-        <v>1.116447995580811</v>
+        <v>0.9060161113739014</v>
       </c>
     </row>
   </sheetData>
